--- a/trend_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
+++ b/trend_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0907246038607102</v>
+        <v>0.90927539613929</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.675457603757603</v>
+        <v>0.324542396242397</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.953508182984525</v>
+        <v>0.046491817015475</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.736746568999287</v>
+        <v>0.7914725663565499</v>
       </c>
       <c r="G28" t="n">
-        <v>0.027906976744186</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="H28" t="n">
-        <v>0.451162790697674</v>
+        <v>0.421383647798742</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2946,16 +2946,16 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004173817918535</v>
+        <v>0.0103790317506921</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0054197681218873</v>
+        <v>-0.0070212008926646</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0160936019156473</v>
+        <v>0.0332347588717016</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4173817918535</v>
+        <v>1.03790317506921</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9999999991034479</v>
+        <v>0.19635703299798</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0262008733624454</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.235807860262009</v>
+        <v>0.81437125748503</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.015</v>
+        <v>11.06</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0006662714337832</v>
+        <v>-0.0139942528735633</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0008563511844618</v>
+        <v>-0.0362291568058042</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0004987884989156</v>
+        <v>0.009994419806627399</v>
       </c>
       <c r="N29" t="n">
-        <v>-4.44180955855527</v>
+        <v>-0.126530315312507</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999999996261284</v>
+        <v>0.994426093393469</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0131004366812227</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6026200873362449</v>
+        <v>0.217647058823529</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>159</v>
+        <v>0.013</v>
       </c>
       <c r="K30" t="n">
-        <v>-11.8354425278091</v>
+        <v>-0.0003490205446727</v>
       </c>
       <c r="L30" t="n">
-        <v>-15.9598132356344</v>
+        <v>-0.0005997536945812</v>
       </c>
       <c r="M30" t="n">
-        <v>-7.98662394546585</v>
+        <v>-0.0001033180727358</v>
       </c>
       <c r="N30" t="n">
-        <v>-7.4436745457919</v>
+        <v>-2.68477342055937</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.963919386625802</v>
+        <v>0.9984577858256271</v>
       </c>
       <c r="G31" t="n">
-        <v>0.524663677130045</v>
+        <v>0.0058823529411764</v>
       </c>
       <c r="H31" t="n">
-        <v>0.609865470852018</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I31" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0132251609680548</v>
+        <v>130</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.51646883723047e-05</v>
+        <v>-6.01069665386725</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0003768593131067</v>
+        <v>-9.42424295583214</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-2.47662532946974</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.492732667146428</v>
+        <v>-4.62361281066712</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9998300963083741</v>
+        <v>0.624364520444994</v>
       </c>
       <c r="G32" t="n">
-        <v>0.143540669856459</v>
+        <v>0.587878787878788</v>
       </c>
       <c r="H32" t="n">
-        <v>0.62200956937799</v>
+        <v>0.587878787878788</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J32" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.0123440240311633</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0028590998043052</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0042384443912992</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0013273011063852</v>
+        <v>8.64091124077653e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.19809821510658</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.999953499260233</v>
+        <v>0.0307419027571631</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0570175438596491</v>
+        <v>0.283783783783784</v>
       </c>
       <c r="H33" t="n">
-        <v>0.618421052631579</v>
+        <v>0.121621621621622</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.096</v>
+        <v>0.003</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0030031518362872</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.004381018527849</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0017205173763656</v>
+        <v>0.0001335365575305</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.1282831627992</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.964166781566644</v>
+        <v>0.15825351631162</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.165562913907285</v>
       </c>
       <c r="H34" t="n">
-        <v>0.873362445414847</v>
+        <v>0.735099337748344</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.46</v>
+        <v>0.066</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0477233363719234</v>
+        <v>0.0004085874298118</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.107930017313246</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0050031474843629</v>
+        <v>0.0015511139067946</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.37928717837929</v>
+        <v>0.619071863351249</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.59675202974633</v>
+        <v>0.676018497287976</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.55952380952381</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.242</v>
+        <v>8.5</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0295104899138613</v>
+        <v>0.0049931647300067</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.105678342569395</v>
+        <v>-0.0094252824428723</v>
       </c>
       <c r="M35" t="n">
-        <v>0.112332381465684</v>
+        <v>0.0130170107307332</v>
       </c>
       <c r="N35" t="n">
-        <v>12.1944173197774</v>
+        <v>0.0587431144706674</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3640,46 +3640,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.59675202974633</v>
+        <v>0.51857835418232</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0470588235294118</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>80.83</v>
+        <v>0.0795</v>
       </c>
       <c r="K36" t="n">
-        <v>5.06514030500132</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-15.263963177443</v>
+        <v>-0.0013338190135062</v>
       </c>
       <c r="M36" t="n">
-        <v>17.7331211565184</v>
+        <v>0.0015405805843245</v>
       </c>
       <c r="N36" t="n">
-        <v>6.26641136335682</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3717,7 +3717,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3727,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3742,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.901018410957002</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.547058823529412</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.255</v>
+        <v>0.37</v>
       </c>
       <c r="K37" t="n">
-        <v>0.125598252198784</v>
+        <v>-0.0023349315068493</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.882003135598974</v>
+        <v>-0.0075200200182097</v>
       </c>
       <c r="M37" t="n">
-        <v>0.703612915801081</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.95178031019468</v>
+        <v>-0.631062569418734</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3775,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3804,7 +3808,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3814,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3829,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.894751149972331</v>
+        <v>0.999997669350123</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.452941176470588</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1915</v>
+        <v>0.039</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0222242063492063</v>
+        <v>-0.0016009204470742</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0021362553084846</v>
+        <v>-0.0022502288485483</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0272206895012497</v>
+        <v>-0.0010248878482602</v>
       </c>
       <c r="N38" t="n">
-        <v>11.6053296862696</v>
+        <v>-4.10492422326742</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3899,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3916,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.894751149972331</v>
+        <v>0.8025121177933791</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.905882352941176</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.5</v>
+        <v>3.32</v>
       </c>
       <c r="K39" t="n">
-        <v>1.31297763157895</v>
+        <v>-0.0443160469667319</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.430388898930079</v>
+        <v>-0.158579549605482</v>
       </c>
       <c r="M39" t="n">
-        <v>4.2995124048232</v>
+        <v>0.0302677631602119</v>
       </c>
       <c r="N39" t="n">
-        <v>1.71631062951496</v>
+        <v>-1.33482069176903</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3978,7 +3990,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3988,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4003,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.984088436306755</v>
+        <v>0.736746568999287</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.027906976744186</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.451162790697674</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.297</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.192349745497259</v>
+        <v>0.004173817918535</v>
       </c>
       <c r="L40" t="n">
-        <v>0.058007949105675</v>
+        <v>-0.0054197681218873</v>
       </c>
       <c r="M40" t="n">
-        <v>0.326789872894012</v>
+        <v>0.0160936019156473</v>
       </c>
       <c r="N40" t="n">
-        <v>5.83408387920107</v>
+        <v>0.4173817918535</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4036,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4065,7 +4081,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4075,14 +4095,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4090,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.156751970988619</v>
+        <v>0.9999999991034479</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0262008733624454</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8</v>
+        <v>0.235807860262009</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>78</v>
+        <v>0.015</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.52235595975192</v>
+        <v>-0.0006662714337832</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.18075239797616</v>
+        <v>-0.0008563511844618</v>
       </c>
       <c r="M41" t="n">
-        <v>0.475267387209392</v>
+        <v>-0.0004987884989156</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.669687127887077</v>
+        <v>-4.44180955855527</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4123,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4152,7 +4172,1162 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.999999996261284</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0131004366812227</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6026200873362449</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>159</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-11.8354425278091</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-15.9598132356344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-7.98662394546585</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-7.4436745457919</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.963919386625802</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.524663677130045</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.609865470852018</v>
+      </c>
+      <c r="I43" t="n">
+        <v>43</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0132251609680548</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-6.51646883723047e-05</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0003768593131067</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.492732667146428</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9998300963083741</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.143540669856459</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.62200956937799</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0028590998043052</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0042384443912992</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.0013273011063852</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-3.19809821510658</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.999953499260233</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0570175438596491</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.618421052631579</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0030031518362872</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.004381018527849</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.0017205173763656</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-3.1282831627992</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.964166781566644</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.873362445414847</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0477233363719234</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.107930017313246</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0050031474843629</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.37928717837929</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0295104899138613</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.105678342569395</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.112332381465684</v>
+      </c>
+      <c r="N47" t="n">
+        <v>12.1944173197774</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>80.83</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5.06514030500132</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-15.263963177443</v>
+      </c>
+      <c r="M48" t="n">
+        <v>17.7331211565184</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6.26641136335682</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.125598252198784</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.882003135598974</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.703612915801081</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.95178031019468</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1915</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0222242063492063</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0021362553084846</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0272206895012497</v>
+      </c>
+      <c r="N50" t="n">
+        <v>11.6053296862696</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.31297763157895</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.430388898930079</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.2995124048232</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.71631062951496</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.984088436306755</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.297</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.192349745497259</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.058007949105675</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.326789872894012</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5.83408387920107</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.827346002479959</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>76</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.567819665759813</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.25306440651072</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.7199621777842</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.7471311391576489</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.156751970988619</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>78</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.52235595975192</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1.18075239797616</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.475267387209392</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.669687127887077</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
+++ b/trend_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.79051913742033</v>
+        <v>0.04560084580935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.5053763440860219</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08277137731654791</v>
+        <v>-0.0367925824175824</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0387588719928706</v>
+        <v>-0.0760548169146268</v>
       </c>
       <c r="M2" t="n">
-        <v>0.241247377235304</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.52467066514071</v>
+        <v>-3.34478021978022</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.90927539613929</v>
+        <v>0.800510922642368</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.96</v>
+        <v>0.895833333333333</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.99</v>
+        <v>10.995</v>
       </c>
       <c r="K3" t="n">
-        <v>0.135016207916288</v>
+        <v>0.0149794941900206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0271578928749106</v>
+        <v>-0.0229893307264858</v>
       </c>
       <c r="M3" t="n">
-        <v>0.241444212678442</v>
+        <v>0.06445915019954369</v>
       </c>
       <c r="N3" t="n">
-        <v>1.22853692371509</v>
+        <v>0.136239146794185</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.996996920146808</v>
+        <v>0.999991717917931</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0306122448979592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.411764705882353</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0017788149350649</v>
+        <v>-0.0012726480836236</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0029816326530612</v>
+        <v>-0.0017721643643248</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0007515432098765</v>
+        <v>-0.0007966194111232</v>
       </c>
       <c r="N4" t="n">
-        <v>-16.1710448642267</v>
+        <v>-9.789600643259179</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9315491029890109</v>
+        <v>0.934639304385645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="H5" t="n">
-        <v>0.686274509803922</v>
+        <v>0.6020408163265309</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-12.7495151906917</v>
+        <v>-5.79761904761905</v>
       </c>
       <c r="L5" t="n">
-        <v>-29.3556533954246</v>
+        <v>-11.1891162947056</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-12.7495151906917</v>
+        <v>-5.15343915343915</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -926,42 +926,42 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.541226284031505</v>
+        <v>0.0455461573047435</v>
       </c>
       <c r="G6" t="n">
-        <v>0.48936170212766</v>
+        <v>0.655913978494624</v>
       </c>
       <c r="H6" t="n">
-        <v>0.723404255319149</v>
+        <v>0.580645161290323</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0140629407378929</v>
+        <v>0.0118007092066603</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0006195103540679</v>
+        <v>0.0007039638649462</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0034178795037955</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.65942691279558e-05</v>
+        <v>0.0013171112762664</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.40526889513691</v>
+        <v>5.96543692940901</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.65958172006719</v>
+        <v>0.215280565679217</v>
       </c>
       <c r="G7" t="n">
-        <v>0.156862745098039</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="H7" t="n">
-        <v>0.215686274509804</v>
+        <v>0.153061224489796</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004858273307232</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001280144283718</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.997411852919782</v>
+        <v>0.0052512024715417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9019607843137259</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.079</v>
+        <v>0.0655</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0220755494505494</v>
+        <v>0.0033265027322404</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0304498671440837</v>
+        <v>0.0011313508725408</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0093981092247571</v>
+        <v>0.0064634349207113</v>
       </c>
       <c r="N8" t="n">
-        <v>-27.9437334817082</v>
+        <v>5.07863012555792</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.324542396242397</v>
+        <v>0.111368442020089</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.784313725490196</v>
+        <v>0.618556701030928</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="K9" t="n">
         <v>-0.0150515109890107</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.083904954426641</v>
+        <v>-0.0324724368451794</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0395065418773198</v>
+        <v>0.0059975369458126</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.179184654631079</v>
+        <v>-0.177076599870714</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1286,42 +1286,42 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.995617829014893</v>
+        <v>0.008606069930086901</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9019607843137259</v>
+        <v>0.755102040816326</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0235807005494506</v>
+        <v>0.0051678457325422</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.039071131071361</v>
+        <v>0.001953699424146</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0073028956410329</v>
+        <v>0.008503102331188299</v>
       </c>
       <c r="N10" t="n">
-        <v>-26.7962506243756</v>
+        <v>6.71148796434054</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.701344213402864</v>
+        <v>0.101403931728553</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09803921568627449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.509803921568627</v>
+        <v>0.581632653061224</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>0.355</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.836195054945055</v>
+        <v>0.0050102880658436</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.57572774854954</v>
+        <v>-0.0018997950180082</v>
       </c>
       <c r="M11" t="n">
-        <v>0.946640572087923</v>
+        <v>0.009976675144838699</v>
       </c>
       <c r="N11" t="n">
-        <v>-13.9365842490842</v>
+        <v>1.41134875094187</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.974541837486256</v>
+        <v>0.967777964339857</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.627450980392157</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.37</v>
+        <v>0.036</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0246125336927224</v>
+        <v>-0.0011595238095238</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0501717032967033</v>
+        <v>-0.0023422973025328</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0048785209081954</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-6.65203613316821</v>
+        <v>-3.22089947089947</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.904891796259622</v>
+        <v>0.168948865706748</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.607843137254902</v>
+        <v>0.959183673469388</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.029</v>
+        <v>3.08</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0015932388222464</v>
+        <v>0.100343406593407</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0043366257475678</v>
+        <v>-0.0934937628136574</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004046843966262</v>
+        <v>0.225092505947249</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.49392697326364</v>
+        <v>3.25790281147424</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9421020625630619</v>
+        <v>0.886969427599955</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H14" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K14" t="n">
-        <v>-0.337626050420168</v>
+        <v>0.0167239010989011</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.12675058920284</v>
+        <v>-0.0016570824370673</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0183177019053467</v>
+        <v>0.0402911202502243</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.2310924369748</v>
+        <v>1.67239010989011</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0164716236954831</v>
+        <v>0.492966288764423</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0285714285714286</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.485714285714286</v>
+        <v>0.819354838709677</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.15</v>
+        <v>11.03</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0420801627084678</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.075084793764225</v>
+        <v>-0.0269575094079491</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0059715036154039</v>
+        <v>0.0197714003588783</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.65914458334502</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.979470410753453</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0316455696202532</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.221518987341772</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>11.045</v>
+        <v>0.013</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.0002956292998785</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0351201923076921</v>
+        <v>-0.0005760666152048</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0335462680727244</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-2.27407153752763</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.999910240369007</v>
+        <v>0.997635439700701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0272727272727273</v>
+        <v>0.0063291139240506</v>
       </c>
       <c r="H17" t="n">
-        <v>0.272727272727273</v>
+        <v>0.664556962025316</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.013</v>
+        <v>130</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0009979508196721</v>
+        <v>-6.66818804198996</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0014011725211243</v>
+        <v>-11.4842788790157</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0005492481203007</v>
+        <v>-2.41442650562613</v>
       </c>
       <c r="N17" t="n">
-        <v>-7.6765447667087</v>
+        <v>-5.12937541691535</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.970698172422518</v>
+        <v>0.8432410176498361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009090909090909</v>
+        <v>0.57516339869281</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6181818181818181</v>
+        <v>0.607843137254902</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>0.0125948549951269</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.0206043956044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-11.215546668343</v>
+        <v>-0.000168165784371</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.07663393895595</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-5.47327672327672</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0278938260916487</v>
+        <v>0.0307419027571631</v>
       </c>
       <c r="G19" t="n">
-        <v>0.676190476190476</v>
+        <v>0.283783783783784</v>
       </c>
       <c r="H19" t="n">
-        <v>0.533333333333333</v>
+        <v>0.121621621621622</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0110453460349476</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007729836802312</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0011949693251813</v>
+        <v>0.0001335365575305</v>
       </c>
       <c r="N19" t="n">
-        <v>6.99827490950018</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2192,11 +2192,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.262744288528933</v>
+        <v>0.08341115382506691</v>
       </c>
       <c r="G20" t="n">
-        <v>0.154545454545455</v>
+        <v>0.168918918918919</v>
       </c>
       <c r="H20" t="n">
-        <v>0.136363636363636</v>
+        <v>0.743243243243243</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.0645</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0007841042154566</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001667047010497</v>
+        <v>0.0017966632618134</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.21566545032043</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0003963076027352</v>
+        <v>0.423513474977412</v>
       </c>
       <c r="G21" t="n">
-        <v>0.163636363636364</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.763636363636364</v>
+        <v>0.57051282051282</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0645</v>
+        <v>8.51</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0036200444292549</v>
+        <v>-0.0019831073980663</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0013936598474963</v>
+        <v>-0.0150515109890115</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0060412928989214</v>
+        <v>0.0099695960679123</v>
       </c>
       <c r="N21" t="n">
-        <v>5.61247198334102</v>
+        <v>-0.0233032596717553</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.046491817015475</v>
+        <v>0.339166347587296</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0506329113924051</v>
       </c>
       <c r="H22" t="n">
-        <v>0.587155963302752</v>
+        <v>0.765822784810127</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>8.51</v>
+        <v>0.077</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.015834445212431</v>
+        <v>0.0002508585164835</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0298759212732924</v>
+        <v>-0.001026157152712</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0002679825129493</v>
+        <v>0.0024013278153752</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.186068686397544</v>
+        <v>0.325790281147424</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,11 +2461,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0003052813966021</v>
+        <v>0.937731486313069</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0636363636363636</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.681818181818182</v>
+        <v>0.563291139240506</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.075</v>
+        <v>0.37</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0050171703296703</v>
+        <v>-0.0033234758871701</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0027580510370425</v>
+        <v>-0.009448615606704401</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0080140650555445</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.68956043956045</v>
+        <v>-0.898236726262205</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.407160892265414</v>
+        <v>0.999994264066472</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0454545454545455</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.381818181818182</v>
+        <v>0.462025316455696</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.039</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0017207413835854</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.232080332798262</v>
+        <v>-0.0024269102990033</v>
       </c>
       <c r="M24" t="n">
-        <v>0.332347588717015</v>
+        <v>-0.001081937791838</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-4.41215739380877</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,11 +2643,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.115995555542734</v>
+        <v>0.875452165885518</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5909090909090911</v>
+        <v>0.905063291139241</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.35</v>
+        <v>3.32</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0050102880658436</v>
+        <v>-0.0724488288668496</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0017356300570651</v>
+        <v>-0.200789313620368</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0099667662265803</v>
+        <v>0.0224433421594371</v>
       </c>
       <c r="N25" t="n">
-        <v>1.43151087595532</v>
+        <v>-2.18219364056776</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.926132198972375</v>
+        <v>0.741314229727765</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="H26" t="n">
-        <v>0.472727272727273</v>
+        <v>0.446078431372549</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0355</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.000668956043956</v>
+        <v>0.0041676175262437</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0015147101893764</v>
+        <v>-0.0060703927558423</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0182341770882552</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.88438322241139</v>
+        <v>0.416761752624372</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.999999771976314</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0230414746543779</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.235023041474654</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.11154119183587</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.936363636363636</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.97</v>
+        <v>0.015</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09635166340508811</v>
+        <v>-0.0006138655462184001</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0389040660562189</v>
+        <v>-0.0008263574660633</v>
       </c>
       <c r="M27" t="n">
-        <v>0.214610618351285</v>
+        <v>-0.0004076450892857</v>
       </c>
       <c r="N27" t="n">
-        <v>3.24416375101307</v>
+        <v>-4.09243697478992</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7914725663565499</v>
+        <v>0.999999464087043</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.0138248847926267</v>
       </c>
       <c r="H28" t="n">
-        <v>0.421383647798742</v>
+        <v>0.603686635944701</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0103790317506921</v>
+        <v>-9.818619339080669</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0070212008926646</v>
+        <v>-14.0926591553049</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0332347588717016</v>
+        <v>-6.17101063598758</v>
       </c>
       <c r="N28" t="n">
-        <v>1.03790317506921</v>
+        <v>-6.54574622605378</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.19635703299798</v>
+        <v>0.923930648774493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.545023696682464</v>
       </c>
       <c r="H29" t="n">
-        <v>0.81437125748503</v>
+        <v>0.601895734597156</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J29" t="n">
-        <v>11.06</v>
+        <v>0.0129221457957638</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0139942528735633</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0362291568058042</v>
+        <v>-0.000300013949699</v>
       </c>
       <c r="M29" t="n">
-        <v>0.009994419806627399</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.126530315312507</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.994426093393469</v>
+        <v>0.982349304194409</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0294117647058824</v>
+        <v>0.152284263959391</v>
       </c>
       <c r="H30" t="n">
-        <v>0.217647058823529</v>
+        <v>0.644670050761421</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>0.013</v>
+        <v>0.081</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0003490205446727</v>
+        <v>-0.0014098176979047</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0005997536945812</v>
+        <v>-0.0030098284052031</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0001033180727358</v>
+        <v>-0.0002220364741641</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.68477342055937</v>
+        <v>-1.74051567642565</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9984577858256271</v>
+        <v>0.995220537083696</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0058823529411764</v>
+        <v>0.0601851851851852</v>
       </c>
       <c r="H31" t="n">
-        <v>0.647058823529412</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>130</v>
+        <v>0.092</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.01069665386725</v>
+        <v>-0.001929892367906</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.42424295583214</v>
+        <v>-0.0033238022863348</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.47662532946974</v>
+        <v>-0.0006645277149217</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.62361281066712</v>
+        <v>-2.09770909555007</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.624364520444994</v>
+        <v>0.955419532098877</v>
       </c>
       <c r="G32" t="n">
-        <v>0.587878787878788</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.587878787878788</v>
+        <v>0.880184331797235</v>
       </c>
       <c r="I32" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0123440240311633</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0557016622314967</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.119232610671599</v>
       </c>
       <c r="M32" t="n">
-        <v>8.64091124077653e-05</v>
+        <v>-0.0023096105415433</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.61454093424628</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0307419027571631</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G33" t="n">
-        <v>0.283783783783784</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.121621621621622</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>0.222</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.01980448522962</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.161033624331231</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001335365575305</v>
+        <v>0.0682621930219889</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>8.92093929262162</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,46 +3458,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.15825351631162</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.165562913907285</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.735099337748344</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.066</v>
+        <v>84.44</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0004085874298118</v>
+        <v>4.13950983493995</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-23.1824520861677</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0015511139067946</v>
+        <v>12.1141536930064</v>
       </c>
       <c r="N34" t="n">
-        <v>0.619071863351249</v>
+        <v>4.90230913659398</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3539,11 +3535,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3553,46 +3545,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.676018497287976</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.55952380952381</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.5</v>
+        <v>3.637</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0049931647300067</v>
+        <v>0.0366983401146984</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0094252824428723</v>
+        <v>-1.07484058600625</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0130170107307332</v>
+        <v>0.703612915801081</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0587431144706674</v>
+        <v>1.00902777329388</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3593,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3640,46 +3632,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8584345646688269</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.51857835418232</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0470588235294118</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.647058823529412</v>
-      </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0795</v>
+        <v>0.203</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0109598825831703</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0013338190135062</v>
+        <v>-0.0034378958644395</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0015405805843245</v>
+        <v>0.0263508622100361</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>5.39895693752229</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3717,11 +3709,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3731,46 +3719,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.923796858021625</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.901018410957002</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.547058823529412</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.37</v>
+        <v>77.5</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0023349315068493</v>
+        <v>1.15078767123288</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0075200200182097</v>
+        <v>-0.381299637776537</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>4.73475764510158</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.631062569418734</v>
+        <v>1.48488731771984</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3808,11 +3796,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3822,11 +3806,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3837,31 +3821,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999997669350123</v>
+        <v>0.975451009195367</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.452941176470588</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.039</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0016009204470742</v>
+        <v>0.136229767769177</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0022502288485483</v>
+        <v>0.041381440921602</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0010248878482602</v>
+        <v>0.326789872894012</v>
       </c>
       <c r="N38" t="n">
-        <v>-4.10492422326742</v>
+        <v>3.83745824701906</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3854,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3883,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3893,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9600990356788049</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.8025121177933791</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.905882352941176</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.32</v>
+        <v>0.1915</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0443160469667319</v>
+        <v>0.0077449808256259</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.158579549605482</v>
+        <v>0.001147639098757</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0302677631602119</v>
+        <v>0.0207378419184037</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.33482069176903</v>
+        <v>4.04437641024856</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3941,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3970,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,14 +3980,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +3995,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.736746568999287</v>
+        <v>0.973635185617412</v>
       </c>
       <c r="G40" t="n">
-        <v>0.027906976744186</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.451162790697674</v>
+        <v>0.8</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="K40" t="n">
-        <v>0.004173817918535</v>
+        <v>0.9662698412698409</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0054197681218873</v>
+        <v>0.322122586749211</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0160936019156473</v>
+        <v>1.99237637809027</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4173817918535</v>
+        <v>1.27140768588137</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4081,11 +4057,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4095,46 +4067,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.985730468214819</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.9999999991034479</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0262008733624454</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.235807860262009</v>
-      </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.015</v>
+        <v>3.072</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0006662714337832</v>
+        <v>0.09871621621621619</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0008563511844618</v>
+        <v>0.0284129029350392</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0004987884989156</v>
+        <v>0.173536505051083</v>
       </c>
       <c r="N41" t="n">
-        <v>-4.44180955855527</v>
+        <v>3.21341849662162</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4115,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4144,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,14 +4154,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4201,31 +4169,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.999999996261284</v>
+        <v>0.372607058937206</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0131004366812227</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6026200873362449</v>
+        <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.8354425278091</v>
+        <v>-0.156314704463712</v>
       </c>
       <c r="L42" t="n">
-        <v>-15.9598132356344</v>
+        <v>-0.9134954116846</v>
       </c>
       <c r="M42" t="n">
-        <v>-7.98662394546585</v>
+        <v>0.767046889821601</v>
       </c>
       <c r="N42" t="n">
-        <v>-7.4436745457919</v>
+        <v>-0.200403467261169</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4202,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,1071 +4231,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>20</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on two censored values</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.963919386625802</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.524663677130045</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.609865470852018</v>
-      </c>
-      <c r="I43" t="n">
-        <v>43</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.0132251609680548</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-6.51646883723047e-05</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-0.0003768593131067</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-0.492732667146428</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Nitrate Nitrogen (NO3)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>20</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.9998300963083741</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.143540669856459</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.62200956937799</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.08939999999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.0028590998043052</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-0.0042384443912992</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.0013273011063852</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.19809821510658</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>20</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.999953499260233</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0570175438596491</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.618421052631579</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.0030031518362872</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.004381018527849</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-0.0017205173763656</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.1282831627992</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>20</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.964166781566644</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.873362445414847</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-0.0477233363719234</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-0.107930017313246</v>
-      </c>
-      <c r="M46" t="n">
-        <v>-0.0050031474843629</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-1.37928717837929</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.59675202974633</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.0295104899138613</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-0.105678342569395</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.112332381465684</v>
-      </c>
-      <c r="N47" t="n">
-        <v>12.1944173197774</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>5</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.59675202974633</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>80.83</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5.06514030500132</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-15.263963177443</v>
-      </c>
-      <c r="M48" t="n">
-        <v>17.7331211565184</v>
-      </c>
-      <c r="N48" t="n">
-        <v>6.26641136335682</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>5</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.255</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.125598252198784</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-0.882003135598974</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.703612915801081</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.95178031019468</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>10</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.894751149972331</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.1915</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.0222242063492063</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-0.0021362553084846</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.0272206895012497</v>
-      </c>
-      <c r="N50" t="n">
-        <v>11.6053296862696</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>10</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.894751149972331</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.31297763157895</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-0.430388898930079</v>
-      </c>
-      <c r="M51" t="n">
-        <v>4.2995124048232</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.71631062951496</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>10</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.984088436306755</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.297</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.192349745497259</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.058007949105675</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.326789872894012</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5.83408387920107</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>15</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.827346002479959</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>76</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.567819665759813</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-0.25306440651072</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.7199621777842</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.7471311391576489</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Hautapu at US Rangitikei River Conf</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>20</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.156751970988619</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>78</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-0.52235595975192</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-1.18075239797616</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.475267387209392</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-0.669687127887077</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>1842978.43</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5595723.71</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
